--- a/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,44%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,65%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 6,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 0,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,5; 2,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; 47,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 413,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,28; 362,99</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,85%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>226,3%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,34; 9,24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 3,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,56</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1,92; 83,59</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,29; 818,95</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,63%</t>
         </is>
       </c>
     </row>
@@ -802,22 +802,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,0; 17,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,83; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 240,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,55%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>103,36%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,95; 7,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,99; 1,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,25; 2,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,66; 55,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,3; 341,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,46; 278,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P54_A_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -602,239 +611,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,14</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>13,11%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-23,44%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>57,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.142337515308057</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1388641399888378</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.7634709192394822</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1311079106265551</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.2685303173685578</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6025267388272849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 6,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 0,55</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,5; 2,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-12,84; 47,23</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 413,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-31,28; 362,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.386522133363726</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.8513817472392198</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4801671969840282</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.128367374785586</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.3004792265347992</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.572631864609503</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.4599855510450649</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.276136527639324</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4722834121381971</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>3.739377656426157</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>38,85%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>22,75%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>226,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,34; 9,24</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-2,09; 3,32</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 3,56</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,92; 83,59</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>10,29; 818,95</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>5.088504817969203</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.100675378451762</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>2.043068923967402</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.3885408126022642</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.1010941954100582</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>2.548022729781506</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,8</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>80,63%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>30,63%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.3360039071268477</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-2.462715353118384</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.5579054416224567</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.0192206836426866</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>0.1875469126655767</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,0; 17,27</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,92</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 3,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>4,38; 240,61</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.242064699091729</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.342587745802466</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.736312786310674</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.8359489380626068</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>9.390268644342505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -842,77 +767,155 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,11</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>103,36%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.803106053322427</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5341175452112755</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.4173590588274257</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.8062550514697293</v>
+      </c>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.289951372287422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0,95; 7,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,99; 1,21</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,25; 2,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>5,66; 55,15</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-86,3; 341,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 278,63</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.004412378571137</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.866379216427548</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.04379230251808195</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.267106065255</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.580995677397686</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.726162291442317</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>2.406148560475245</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.10886392081547</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.0273706066155224</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.222174117448005</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.2854655183514968</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.04242443396616435</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.109381453810232</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>0.9537947342536192</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.9945665610257065</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2989734142274753</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.05656569537540688</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8600240673628615</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.1280215692100618</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.132861501383397</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9197112404864671</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.122578221914494</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.5514980367271534</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>3.704439111239825</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.881118622741715</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -921,12 +924,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
